--- a/submissiions/diagrams/gantt chart new.xlsx
+++ b/submissiions/diagrams/gantt chart new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop D\3rd year\PUSL3190_MDCGunathilaka\diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop D\3rd year\PUSL3190_MDCGunathilaka\submissiions\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87F962-CB4E-4D00-BA1A-E3F3F7E00934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFA6FAA-FFB9-45D4-90DF-8A0B90F6B5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{59E5ECE7-1840-4FFB-B715-8C66FA8485E3}"/>
   </bookViews>
@@ -47,12 +47,6 @@
     <t>Data Collection &amp; Analysis</t>
   </si>
   <si>
-    <t>Back-End Development</t>
-  </si>
-  <si>
-    <t>Front-End design</t>
-  </si>
-  <si>
     <t>November</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>week20</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Finalizing the Project</t>
   </si>
   <si>
@@ -171,6 +162,15 @@
   </si>
   <si>
     <t>April</t>
+  </si>
+  <si>
+    <t>Front-End design &amp; testing</t>
+  </si>
+  <si>
+    <t>Back-End Development &amp; testing</t>
+  </si>
+  <si>
+    <t>Final Testing</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,7 +902,7 @@
   <dimension ref="B3:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,115 +957,115 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="J5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="K5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="M5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="N5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="Q5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="R5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="S5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="T5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="U5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="V5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="V5" s="11" t="s">
+      <c r="W5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="X5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
       <c r="K6" s="5"/>
       <c r="L6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="5"/>
       <c r="T6" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="4"/>
       <c r="W6" s="29"/>
       <c r="X6" s="30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Y6" s="30"/>
       <c r="Z6" s="30"/>
@@ -1100,8 +1102,8 @@
       <c r="C8" s="1"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="2"/>
@@ -1145,7 +1147,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="18"/>
@@ -1155,22 +1157,22 @@
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="23"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="1"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>3</v>
+    <row r="11" spans="2:26" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="18"/>
@@ -1185,17 +1187,19 @@
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="19"/>
+      <c r="P11" s="23"/>
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="18"/>
@@ -1212,15 +1216,17 @@
       <c r="O12" s="22"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="18"/>
@@ -1242,13 +1248,14 @@
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
       <c r="V13" s="31"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
       <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1256,7 +1263,7 @@
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1264,27 +1271,27 @@
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
